--- a/src/data/images.xlsx
+++ b/src/data/images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/min_a/lda/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9BA04-F696-114D-9B52-C911A1362B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BC80A-5798-944B-9506-1DC862B05DF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,542 +1374,542 @@
     <t>yanesen/02/050</t>
   </si>
   <si>
-    <t>yanesen-03-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-03-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-019.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-10-020.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-019.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-020.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-021.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-06-022.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-05-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-019.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-08-020.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-04-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-019.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-09-020.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-07-018.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-01-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-01-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-01-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-01-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-01-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-01-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-001.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-002.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-003.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-004.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-005.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-006.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-007.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-008.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-009.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-010.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-011.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-012.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-013.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-014.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-015.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-016.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-017.jpg</t>
-  </si>
-  <si>
-    <t>yanesen-02-018.jpg</t>
-  </si>
-  <si>
     <t>img_url</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yanesen-03-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-03-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-019/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-10-020/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-019/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-020/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-021/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-06-022/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-05-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-019/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-08-020/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-04-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-019/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-09-020/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-07-018/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-01-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-01-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-01-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-01-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-01-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-01-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-001/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-002/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-003/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-004/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-005/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-006/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-007/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-008/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-009/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-010/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-011/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-012/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-013/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-014/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-015/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-016/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-017/info.json</t>
+  </si>
+  <si>
+    <t>yanesen-02-018/info.json</t>
   </si>
 </sst>
 </file>
@@ -2343,14 +2343,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="38.1640625" customWidth="1"/>
     <col min="2" max="2" width="91.1640625" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="61.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
@@ -2358,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>625</v>
+        <v>447</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2368,11 +2369,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B65" si="0">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D2, "00")&amp;"/"&amp;C2</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D2, "00")&amp;"/"&amp;C2</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-001/info.json</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -2383,11 +2384,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D3, "00")&amp;"/"&amp;C3</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-002/info.json</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
@@ -2398,11 +2399,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D4, "00")&amp;"/"&amp;C4</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-002/info.json</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -2413,11 +2414,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D5, "00")&amp;"/"&amp;C5</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-002/info.json</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -2428,11 +2429,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D6, "00")&amp;"/"&amp;C6</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-002/info.json</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -2443,11 +2444,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D7, "00")&amp;"/"&amp;C7</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-003/info.json</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
@@ -2458,11 +2459,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D8, "00")&amp;"/"&amp;C8</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-004/info.json</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -2473,11 +2474,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D9, "00")&amp;"/"&amp;C9</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-005/info.json</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
@@ -2488,11 +2489,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D10, "00")&amp;"/"&amp;C10</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-006/info.json</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
@@ -2503,11 +2504,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D11, "00")&amp;"/"&amp;C11</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-007/info.json</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -2518,11 +2519,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D12, "00")&amp;"/"&amp;C12</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-004/info.json</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2533,11 +2534,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D13, "00")&amp;"/"&amp;C13</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-005/info.json</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2548,11 +2549,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D14, "00")&amp;"/"&amp;C14</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-006/info.json</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2563,11 +2564,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D15, "00")&amp;"/"&amp;C15</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-007/info.json</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2578,11 +2579,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D16, "00")&amp;"/"&amp;C16</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-007/info.json</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2593,11 +2594,11 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D17, "00")&amp;"/"&amp;C17</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-008/info.json</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2608,11 +2609,11 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D18, "00")&amp;"/"&amp;C18</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-008/info.json</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -2623,11 +2624,11 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D19, "00")&amp;"/"&amp;C19</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-009/info.json</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -2638,11 +2639,11 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D20, "00")&amp;"/"&amp;C20</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-008/info.json</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
@@ -2653,11 +2654,11 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D21, "00")&amp;"/"&amp;C21</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-009/info.json</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -2668,11 +2669,11 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D22, "00")&amp;"/"&amp;C22</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-009/info.json</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -2683,11 +2684,11 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D23, "00")&amp;"/"&amp;C23</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-010/info.json</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -2698,11 +2699,11 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D24, "00")&amp;"/"&amp;C24</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-011/info.json</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
@@ -2713,11 +2714,11 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D25, "00")&amp;"/"&amp;C25</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-011/info.json</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -2728,11 +2729,11 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D26, "00")&amp;"/"&amp;C26</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-011/info.json</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -2743,11 +2744,11 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D27, "00")&amp;"/"&amp;C27</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-011/info.json</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
@@ -2758,11 +2759,11 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D28, "00")&amp;"/"&amp;C28</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-012/info.json</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
@@ -2773,11 +2774,11 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D29, "00")&amp;"/"&amp;C29</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-012/info.json</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D29" s="3">
         <v>3</v>
@@ -2788,11 +2789,11 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D30, "00")&amp;"/"&amp;C30</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-012/info.json</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
@@ -2803,11 +2804,11 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D31, "00")&amp;"/"&amp;C31</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-013/info.json</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
@@ -2818,11 +2819,11 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D32, "00")&amp;"/"&amp;C32</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-014/info.json</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D32" s="3">
         <v>3</v>
@@ -2833,11 +2834,11 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D33, "00")&amp;"/"&amp;C33</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-015/info.json</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D33" s="3">
         <v>3</v>
@@ -2848,11 +2849,11 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D34, "00")&amp;"/"&amp;C34</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-015/info.json</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
@@ -2863,11 +2864,11 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D35, "00")&amp;"/"&amp;C35</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-015/info.json</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D35" s="3">
         <v>3</v>
@@ -2878,11 +2879,11 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D36, "00")&amp;"/"&amp;C36</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
@@ -2893,11 +2894,11 @@
         <v>27</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D37, "00")&amp;"/"&amp;C37</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
@@ -2908,11 +2909,11 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D38, "00")&amp;"/"&amp;C38</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -2923,11 +2924,11 @@
         <v>29</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D39, "00")&amp;"/"&amp;C39</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
@@ -2938,11 +2939,11 @@
         <v>30</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D40, "00")&amp;"/"&amp;C40</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -2953,11 +2954,11 @@
         <v>31</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D41, "00")&amp;"/"&amp;C41</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D41" s="3">
         <v>3</v>
@@ -2968,11 +2969,11 @@
         <v>32</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D42, "00")&amp;"/"&amp;C42</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
@@ -2983,11 +2984,11 @@
         <v>33</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D43, "00")&amp;"/"&amp;C43</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D43" s="3">
         <v>3</v>
@@ -2998,11 +2999,11 @@
         <v>34</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D44, "00")&amp;"/"&amp;C44</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
@@ -3013,11 +3014,11 @@
         <v>35</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D45, "00")&amp;"/"&amp;C45</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
@@ -3028,11 +3029,11 @@
         <v>36</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D46, "00")&amp;"/"&amp;C46</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
@@ -3043,11 +3044,11 @@
         <v>37</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D47, "00")&amp;"/"&amp;C47</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D47" s="3">
         <v>3</v>
@@ -3058,11 +3059,11 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D48, "00")&amp;"/"&amp;C48</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-016/info.json</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
@@ -3073,11 +3074,11 @@
         <v>39</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D49, "00")&amp;"/"&amp;C49</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-017/info.json</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D49" s="3">
         <v>3</v>
@@ -3088,11 +3089,11 @@
         <v>40</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D50, "00")&amp;"/"&amp;C50</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-018/info.json</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
@@ -3103,11 +3104,11 @@
         <v>41</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D51, "00")&amp;"/"&amp;C51</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-018/info.json</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
@@ -3118,11 +3119,11 @@
         <v>42</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-03/yanesen-03-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D52, "00")&amp;"/"&amp;C52</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-03/yanesen-03-018/info.json</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
@@ -3133,11 +3134,11 @@
         <v>43</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D53, "00")&amp;"/"&amp;C53</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-001/info.json</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D53" s="3">
         <v>10</v>
@@ -3148,11 +3149,11 @@
         <v>44</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D54, "00")&amp;"/"&amp;C54</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-002/info.json</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D54" s="3">
         <v>10</v>
@@ -3163,11 +3164,11 @@
         <v>45</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D55, "00")&amp;"/"&amp;C55</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-002/info.json</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D55" s="3">
         <v>10</v>
@@ -3178,11 +3179,11 @@
         <v>46</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D56, "00")&amp;"/"&amp;C56</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-002/info.json</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D56" s="3">
         <v>10</v>
@@ -3193,11 +3194,11 @@
         <v>47</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D57, "00")&amp;"/"&amp;C57</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-002/info.json</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D57" s="3">
         <v>10</v>
@@ -3208,11 +3209,11 @@
         <v>48</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D58, "00")&amp;"/"&amp;C58</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-003/info.json</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D58" s="3">
         <v>10</v>
@@ -3223,11 +3224,11 @@
         <v>48</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D59, "00")&amp;"/"&amp;C59</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-004/info.json</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D59" s="3">
         <v>10</v>
@@ -3238,11 +3239,11 @@
         <v>48</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D60, "00")&amp;"/"&amp;C60</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-005/info.json</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D60" s="3">
         <v>10</v>
@@ -3253,11 +3254,11 @@
         <v>48</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D61, "00")&amp;"/"&amp;C61</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-006/info.json</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D61" s="3">
         <v>10</v>
@@ -3268,11 +3269,11 @@
         <v>48</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D62, "00")&amp;"/"&amp;C62</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-007/info.json</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D62" s="3">
         <v>10</v>
@@ -3283,11 +3284,11 @@
         <v>49</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D63, "00")&amp;"/"&amp;C63</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-003/info.json</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D63" s="3">
         <v>10</v>
@@ -3298,11 +3299,11 @@
         <v>50</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D64, "00")&amp;"/"&amp;C64</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-003/info.json</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D64" s="3">
         <v>10</v>
@@ -3313,11 +3314,11 @@
         <v>50</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D65, "00")&amp;"/"&amp;C65</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-004/info.json</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D65" s="3">
         <v>10</v>
@@ -3328,11 +3329,11 @@
         <v>51</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" ref="B66:B129" si="1">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D66, "00")&amp;"/"&amp;C66</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D66, "00")&amp;"/"&amp;C66</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-004/info.json</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D66" s="3">
         <v>10</v>
@@ -3343,11 +3344,11 @@
         <v>52</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D67, "00")&amp;"/"&amp;C67</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-005/info.json</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D67" s="3">
         <v>10</v>
@@ -3358,11 +3359,11 @@
         <v>53</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D68, "00")&amp;"/"&amp;C68</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-005/info.json</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -3373,11 +3374,11 @@
         <v>54</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D69, "00")&amp;"/"&amp;C69</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-006/info.json</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D69" s="3">
         <v>10</v>
@@ -3388,11 +3389,11 @@
         <v>55</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D70, "00")&amp;"/"&amp;C70</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-006/info.json</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D70" s="3">
         <v>10</v>
@@ -3403,11 +3404,11 @@
         <v>56</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D71, "00")&amp;"/"&amp;C71</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-006/info.json</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D71" s="3">
         <v>10</v>
@@ -3418,11 +3419,11 @@
         <v>57</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D72, "00")&amp;"/"&amp;C72</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-006/info.json</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D72" s="3">
         <v>10</v>
@@ -3433,11 +3434,11 @@
         <v>58</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D73, "00")&amp;"/"&amp;C73</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-007/info.json</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D73" s="3">
         <v>10</v>
@@ -3448,11 +3449,11 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D74, "00")&amp;"/"&amp;C74</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-007/info.json</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D74" s="3">
         <v>10</v>
@@ -3463,11 +3464,11 @@
         <v>60</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D75, "00")&amp;"/"&amp;C75</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-008/info.json</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D75" s="3">
         <v>10</v>
@@ -3478,11 +3479,11 @@
         <v>61</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D76, "00")&amp;"/"&amp;C76</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-009/info.json</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D76" s="3">
         <v>10</v>
@@ -3493,11 +3494,11 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D77, "00")&amp;"/"&amp;C77</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-010/info.json</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D77" s="3">
         <v>10</v>
@@ -3508,11 +3509,11 @@
         <v>63</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D78, "00")&amp;"/"&amp;C78</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-011/info.json</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D78" s="3">
         <v>10</v>
@@ -3523,11 +3524,11 @@
         <v>64</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D79, "00")&amp;"/"&amp;C79</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-012/info.json</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D79" s="3">
         <v>10</v>
@@ -3538,11 +3539,11 @@
         <v>64</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D80, "00")&amp;"/"&amp;C80</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-013/info.json</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D80" s="3">
         <v>10</v>
@@ -3553,11 +3554,11 @@
         <v>65</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D81, "00")&amp;"/"&amp;C81</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-013/info.json</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D81" s="3">
         <v>10</v>
@@ -3568,11 +3569,11 @@
         <v>66</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D82, "00")&amp;"/"&amp;C82</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-014/info.json</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D82" s="3">
         <v>10</v>
@@ -3583,11 +3584,11 @@
         <v>67</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D83, "00")&amp;"/"&amp;C83</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-015/info.json</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D83" s="3">
         <v>10</v>
@@ -3598,11 +3599,11 @@
         <v>67</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D84, "00")&amp;"/"&amp;C84</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D84" s="3">
         <v>10</v>
@@ -3613,11 +3614,11 @@
         <v>68</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D85, "00")&amp;"/"&amp;C85</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-015/info.json</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D85" s="3">
         <v>10</v>
@@ -3628,11 +3629,11 @@
         <v>69</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D86, "00")&amp;"/"&amp;C86</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-015/info.json</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D86" s="3">
         <v>10</v>
@@ -3643,11 +3644,11 @@
         <v>70</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D87, "00")&amp;"/"&amp;C87</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-015/info.json</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D87" s="3">
         <v>10</v>
@@ -3658,11 +3659,11 @@
         <v>71</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D88, "00")&amp;"/"&amp;C88</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D88" s="3">
         <v>10</v>
@@ -3673,11 +3674,11 @@
         <v>72</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D89, "00")&amp;"/"&amp;C89</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D89" s="3">
         <v>10</v>
@@ -3688,11 +3689,11 @@
         <v>73</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D90, "00")&amp;"/"&amp;C90</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D90" s="3">
         <v>10</v>
@@ -3703,11 +3704,11 @@
         <v>74</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D91, "00")&amp;"/"&amp;C91</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D91" s="3">
         <v>10</v>
@@ -3718,11 +3719,11 @@
         <v>75</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D92, "00")&amp;"/"&amp;C92</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D92" s="3">
         <v>10</v>
@@ -3733,11 +3734,11 @@
         <v>76</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D93, "00")&amp;"/"&amp;C93</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D93" s="3">
         <v>10</v>
@@ -3748,11 +3749,11 @@
         <v>77</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D94, "00")&amp;"/"&amp;C94</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-016/info.json</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D94" s="3">
         <v>10</v>
@@ -3763,11 +3764,11 @@
         <v>78</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D95, "00")&amp;"/"&amp;C95</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-017/info.json</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D95" s="3">
         <v>10</v>
@@ -3778,11 +3779,11 @@
         <v>79</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D96, "00")&amp;"/"&amp;C96</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-018/info.json</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D96" s="3">
         <v>10</v>
@@ -3793,11 +3794,11 @@
         <v>80</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D97, "00")&amp;"/"&amp;C97</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-019/info.json</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D97" s="3">
         <v>10</v>
@@ -3808,11 +3809,11 @@
         <v>81</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D98, "00")&amp;"/"&amp;C98</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-019/info.json</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D98" s="3">
         <v>10</v>
@@ -3823,11 +3824,11 @@
         <v>82</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D99, "00")&amp;"/"&amp;C99</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-020/info.json</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D99" s="3">
         <v>10</v>
@@ -3838,11 +3839,11 @@
         <v>83</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D100, "00")&amp;"/"&amp;C100</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-020/info.json</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D100" s="3">
         <v>10</v>
@@ -3853,11 +3854,11 @@
         <v>84</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-10/yanesen-10-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D101, "00")&amp;"/"&amp;C101</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-10/yanesen-10-020/info.json</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D101" s="3">
         <v>10</v>
@@ -3868,11 +3869,11 @@
         <v>85</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D102, "00")&amp;"/"&amp;C102</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-001/info.json</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D102" s="3">
         <v>6</v>
@@ -3883,11 +3884,11 @@
         <v>86</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D103, "00")&amp;"/"&amp;C103</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-002/info.json</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D103" s="3">
         <v>6</v>
@@ -3898,11 +3899,11 @@
         <v>87</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D104, "00")&amp;"/"&amp;C104</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-002/info.json</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D104" s="3">
         <v>6</v>
@@ -3913,11 +3914,11 @@
         <v>88</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D105, "00")&amp;"/"&amp;C105</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-002/info.json</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D105" s="3">
         <v>6</v>
@@ -3928,11 +3929,11 @@
         <v>89</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D106, "00")&amp;"/"&amp;C106</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-002/info.json</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D106" s="3">
         <v>6</v>
@@ -3943,11 +3944,11 @@
         <v>90</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D107, "00")&amp;"/"&amp;C107</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-003/info.json</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D107" s="3">
         <v>6</v>
@@ -3958,11 +3959,11 @@
         <v>91</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D108, "00")&amp;"/"&amp;C108</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-004/info.json</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D108" s="3">
         <v>6</v>
@@ -3973,11 +3974,11 @@
         <v>91</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D109, "00")&amp;"/"&amp;C109</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-005/info.json</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D109" s="3">
         <v>6</v>
@@ -3988,11 +3989,11 @@
         <v>91</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D110, "00")&amp;"/"&amp;C110</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-006/info.json</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D110" s="3">
         <v>6</v>
@@ -4003,11 +4004,11 @@
         <v>91</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D111, "00")&amp;"/"&amp;C111</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-007/info.json</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D111" s="3">
         <v>6</v>
@@ -4018,11 +4019,11 @@
         <v>91</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D112, "00")&amp;"/"&amp;C112</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-008/info.json</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D112" s="3">
         <v>6</v>
@@ -4033,11 +4034,11 @@
         <v>91</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D113, "00")&amp;"/"&amp;C113</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-009/info.json</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D113" s="3">
         <v>6</v>
@@ -4048,11 +4049,11 @@
         <v>92</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D114, "00")&amp;"/"&amp;C114</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-004/info.json</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D114" s="3">
         <v>6</v>
@@ -4063,11 +4064,11 @@
         <v>93</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D115, "00")&amp;"/"&amp;C115</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-004/info.json</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D115" s="3">
         <v>6</v>
@@ -4078,11 +4079,11 @@
         <v>94</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D116, "00")&amp;"/"&amp;C116</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-005/info.json</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D116" s="3">
         <v>6</v>
@@ -4093,11 +4094,11 @@
         <v>95</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D117, "00")&amp;"/"&amp;C117</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-005/info.json</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D117" s="3">
         <v>6</v>
@@ -4108,11 +4109,11 @@
         <v>96</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D118, "00")&amp;"/"&amp;C118</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-006/info.json</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D118" s="3">
         <v>6</v>
@@ -4123,11 +4124,11 @@
         <v>97</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D119, "00")&amp;"/"&amp;C119</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-006/info.json</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D119" s="3">
         <v>6</v>
@@ -4138,11 +4139,11 @@
         <v>98</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D120, "00")&amp;"/"&amp;C120</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-006/info.json</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D120" s="3">
         <v>6</v>
@@ -4153,11 +4154,11 @@
         <v>99</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D121, "00")&amp;"/"&amp;C121</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-007/info.json</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D121" s="3">
         <v>6</v>
@@ -4168,11 +4169,11 @@
         <v>100</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D122, "00")&amp;"/"&amp;C122</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-007/info.json</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D122" s="3">
         <v>6</v>
@@ -4183,11 +4184,11 @@
         <v>101</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D123, "00")&amp;"/"&amp;C123</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-008/info.json</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D123" s="3">
         <v>6</v>
@@ -4198,11 +4199,11 @@
         <v>102</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D124, "00")&amp;"/"&amp;C124</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-008/info.json</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D124" s="3">
         <v>6</v>
@@ -4213,11 +4214,11 @@
         <v>103</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D125, "00")&amp;"/"&amp;C125</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-008/info.json</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D125" s="3">
         <v>6</v>
@@ -4228,11 +4229,11 @@
         <v>104</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D126, "00")&amp;"/"&amp;C126</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-008/info.json</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D126" s="3">
         <v>6</v>
@@ -4243,11 +4244,11 @@
         <v>105</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D127, "00")&amp;"/"&amp;C127</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-009/info.json</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D127" s="3">
         <v>6</v>
@@ -4258,11 +4259,11 @@
         <v>106</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D128, "00")&amp;"/"&amp;C128</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-009/info.json</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D128" s="3">
         <v>6</v>
@@ -4273,11 +4274,11 @@
         <v>107</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D129, "00")&amp;"/"&amp;C129</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-009/info.json</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
@@ -4288,11 +4289,11 @@
         <v>108</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f t="shared" ref="B130:B193" si="2">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D130, "00")&amp;"/"&amp;C130</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D130, "00")&amp;"/"&amp;C130</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-010/info.json</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D130" s="3">
         <v>6</v>
@@ -4303,11 +4304,11 @@
         <v>109</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D131, "00")&amp;"/"&amp;C131</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-010/info.json</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D131" s="3">
         <v>6</v>
@@ -4318,11 +4319,11 @@
         <v>110</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D132, "00")&amp;"/"&amp;C132</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-011/info.json</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D132" s="3">
         <v>6</v>
@@ -4333,11 +4334,11 @@
         <v>111</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D133, "00")&amp;"/"&amp;C133</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-012/info.json</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D133" s="3">
         <v>6</v>
@@ -4348,11 +4349,11 @@
         <v>112</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D134, "00")&amp;"/"&amp;C134</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-013/info.json</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D134" s="3">
         <v>6</v>
@@ -4363,11 +4364,11 @@
         <v>112</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D135, "00")&amp;"/"&amp;C135</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-014/info.json</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D135" s="3">
         <v>6</v>
@@ -4378,11 +4379,11 @@
         <v>112</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D136, "00")&amp;"/"&amp;C136</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-015/info.json</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D136" s="3">
         <v>6</v>
@@ -4393,11 +4394,11 @@
         <v>113</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D137, "00")&amp;"/"&amp;C137</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-015/info.json</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D137" s="3">
         <v>6</v>
@@ -4408,11 +4409,11 @@
         <v>114</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D138, "00")&amp;"/"&amp;C138</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-016/info.json</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D138" s="3">
         <v>6</v>
@@ -4423,11 +4424,11 @@
         <v>115</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D139, "00")&amp;"/"&amp;C139</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-016/info.json</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D139" s="3">
         <v>6</v>
@@ -4438,11 +4439,11 @@
         <v>116</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D140, "00")&amp;"/"&amp;C140</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-016/info.json</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D140" s="3">
         <v>6</v>
@@ -4453,11 +4454,11 @@
         <v>117</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D141, "00")&amp;"/"&amp;C141</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-017/info.json</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D141" s="3">
         <v>6</v>
@@ -4468,11 +4469,11 @@
         <v>118</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D142, "00")&amp;"/"&amp;C142</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-017/info.json</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D142" s="3">
         <v>6</v>
@@ -4483,11 +4484,11 @@
         <v>119</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D143, "00")&amp;"/"&amp;C143</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D143" s="3">
         <v>6</v>
@@ -4498,11 +4499,11 @@
         <v>120</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D144, "00")&amp;"/"&amp;C144</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D144" s="3">
         <v>6</v>
@@ -4513,11 +4514,11 @@
         <v>121</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D145, "00")&amp;"/"&amp;C145</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D145" s="3">
         <v>6</v>
@@ -4528,11 +4529,11 @@
         <v>122</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D146, "00")&amp;"/"&amp;C146</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D146" s="3">
         <v>6</v>
@@ -4543,11 +4544,11 @@
         <v>123</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D147, "00")&amp;"/"&amp;C147</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D147" s="3">
         <v>6</v>
@@ -4558,11 +4559,11 @@
         <v>124</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D148, "00")&amp;"/"&amp;C148</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D148" s="3">
         <v>6</v>
@@ -4573,11 +4574,11 @@
         <v>125</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D149, "00")&amp;"/"&amp;C149</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D149" s="3">
         <v>6</v>
@@ -4588,11 +4589,11 @@
         <v>126</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D150, "00")&amp;"/"&amp;C150</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D150" s="3">
         <v>6</v>
@@ -4603,11 +4604,11 @@
         <v>127</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D151, "00")&amp;"/"&amp;C151</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-018/info.json</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D151" s="3">
         <v>6</v>
@@ -4618,11 +4619,11 @@
         <v>128</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D152, "00")&amp;"/"&amp;C152</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-019/info.json</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D152" s="3">
         <v>6</v>
@@ -4633,11 +4634,11 @@
         <v>129</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D153, "00")&amp;"/"&amp;C153</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D153" s="3">
         <v>6</v>
@@ -4648,11 +4649,11 @@
         <v>130</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D154, "00")&amp;"/"&amp;C154</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D154" s="3">
         <v>6</v>
@@ -4663,11 +4664,11 @@
         <v>131</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D155, "00")&amp;"/"&amp;C155</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D155" s="3">
         <v>6</v>
@@ -4678,11 +4679,11 @@
         <v>132</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D156, "00")&amp;"/"&amp;C156</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D156" s="3">
         <v>6</v>
@@ -4693,11 +4694,11 @@
         <v>133</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D157, "00")&amp;"/"&amp;C157</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D157" s="3">
         <v>6</v>
@@ -4708,11 +4709,11 @@
         <v>134</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D158, "00")&amp;"/"&amp;C158</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D158" s="3">
         <v>6</v>
@@ -4723,11 +4724,11 @@
         <v>135</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D159, "00")&amp;"/"&amp;C159</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D159" s="3">
         <v>6</v>
@@ -4738,11 +4739,11 @@
         <v>136</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D160, "00")&amp;"/"&amp;C160</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D160" s="3">
         <v>6</v>
@@ -4753,11 +4754,11 @@
         <v>137</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D161, "00")&amp;"/"&amp;C161</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D161" s="3">
         <v>6</v>
@@ -4768,11 +4769,11 @@
         <v>138</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D162, "00")&amp;"/"&amp;C162</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-020/info.json</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D162" s="3">
         <v>6</v>
@@ -4783,11 +4784,11 @@
         <v>139</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-021.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D163, "00")&amp;"/"&amp;C163</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-021/info.json</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D163" s="3">
         <v>6</v>
@@ -4798,11 +4799,11 @@
         <v>140</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-022.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D164, "00")&amp;"/"&amp;C164</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-022/info.json</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D164" s="3">
         <v>6</v>
@@ -4813,11 +4814,11 @@
         <v>141</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-022.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D165, "00")&amp;"/"&amp;C165</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-022/info.json</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D165" s="3">
         <v>6</v>
@@ -4828,11 +4829,11 @@
         <v>142</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-06/yanesen-06-022.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D166, "00")&amp;"/"&amp;C166</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-06/yanesen-06-022/info.json</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D166" s="3">
         <v>6</v>
@@ -4843,11 +4844,11 @@
         <v>143</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D167, "00")&amp;"/"&amp;C167</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-001/info.json</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D167" s="3">
         <v>5</v>
@@ -4858,11 +4859,11 @@
         <v>144</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D168, "00")&amp;"/"&amp;C168</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-002/info.json</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D168" s="3">
         <v>5</v>
@@ -4873,11 +4874,11 @@
         <v>145</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D169, "00")&amp;"/"&amp;C169</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-002/info.json</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D169" s="3">
         <v>5</v>
@@ -4888,11 +4889,11 @@
         <v>146</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D170, "00")&amp;"/"&amp;C170</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-002/info.json</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D170" s="3">
         <v>5</v>
@@ -4903,11 +4904,11 @@
         <v>147</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D171, "00")&amp;"/"&amp;C171</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-002/info.json</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D171" s="3">
         <v>5</v>
@@ -4918,11 +4919,11 @@
         <v>148</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D172, "00")&amp;"/"&amp;C172</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-003/info.json</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D172" s="3">
         <v>5</v>
@@ -4933,11 +4934,11 @@
         <v>148</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D173, "00")&amp;"/"&amp;C173</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-004/info.json</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D173" s="3">
         <v>5</v>
@@ -4948,11 +4949,11 @@
         <v>148</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D174, "00")&amp;"/"&amp;C174</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-005/info.json</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D174" s="3">
         <v>5</v>
@@ -4963,11 +4964,11 @@
         <v>148</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D175, "00")&amp;"/"&amp;C175</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-006/info.json</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D175" s="3">
         <v>5</v>
@@ -4978,11 +4979,11 @@
         <v>148</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D176, "00")&amp;"/"&amp;C176</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-007/info.json</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D176" s="3">
         <v>5</v>
@@ -4993,11 +4994,11 @@
         <v>148</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D177, "00")&amp;"/"&amp;C177</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-008/info.json</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D177" s="3">
         <v>5</v>
@@ -5008,11 +5009,11 @@
         <v>149</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D178, "00")&amp;"/"&amp;C178</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-003/info.json</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D178" s="3">
         <v>5</v>
@@ -5023,11 +5024,11 @@
         <v>149</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D179, "00")&amp;"/"&amp;C179</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-004/info.json</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D179" s="3">
         <v>5</v>
@@ -5038,11 +5039,11 @@
         <v>149</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D180, "00")&amp;"/"&amp;C180</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-005/info.json</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D180" s="3">
         <v>5</v>
@@ -5053,11 +5054,11 @@
         <v>150</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D181, "00")&amp;"/"&amp;C181</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-003/info.json</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D181" s="3">
         <v>5</v>
@@ -5068,11 +5069,11 @@
         <v>151</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D182, "00")&amp;"/"&amp;C182</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-004/info.json</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D182" s="3">
         <v>5</v>
@@ -5083,11 +5084,11 @@
         <v>152</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D183, "00")&amp;"/"&amp;C183</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-004/info.json</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D183" s="3">
         <v>5</v>
@@ -5098,11 +5099,11 @@
         <v>153</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D184, "00")&amp;"/"&amp;C184</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-004/info.json</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D184" s="3">
         <v>5</v>
@@ -5113,11 +5114,11 @@
         <v>154</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D185, "00")&amp;"/"&amp;C185</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-005/info.json</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D185" s="3">
         <v>5</v>
@@ -5128,11 +5129,11 @@
         <v>155</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D186, "00")&amp;"/"&amp;C186</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-005/info.json</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D186" s="3">
         <v>5</v>
@@ -5143,11 +5144,11 @@
         <v>156</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D187, "00")&amp;"/"&amp;C187</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-005/info.json</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D187" s="3">
         <v>5</v>
@@ -5158,11 +5159,11 @@
         <v>157</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D188, "00")&amp;"/"&amp;C188</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-005/info.json</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D188" s="3">
         <v>5</v>
@@ -5173,11 +5174,11 @@
         <v>158</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D189, "00")&amp;"/"&amp;C189</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-006/info.json</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D189" s="3">
         <v>5</v>
@@ -5188,11 +5189,11 @@
         <v>159</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D190, "00")&amp;"/"&amp;C190</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-006/info.json</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D190" s="3">
         <v>5</v>
@@ -5203,11 +5204,11 @@
         <v>160</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D191, "00")&amp;"/"&amp;C191</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-006/info.json</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D191" s="3">
         <v>5</v>
@@ -5218,11 +5219,11 @@
         <v>161</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D192, "00")&amp;"/"&amp;C192</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-007/info.json</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D192" s="3">
         <v>5</v>
@@ -5233,11 +5234,11 @@
         <v>162</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D193, "00")&amp;"/"&amp;C193</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-007/info.json</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D193" s="3">
         <v>5</v>
@@ -5248,11 +5249,11 @@
         <v>162</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f t="shared" ref="B194:B257" si="3">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D194, "00")&amp;"/"&amp;C194</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D194, "00")&amp;"/"&amp;C194</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-008/info.json</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D194" s="3">
         <v>5</v>
@@ -5263,11 +5264,11 @@
         <v>163</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D195, "00")&amp;"/"&amp;C195</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-008/info.json</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D195" s="3">
         <v>5</v>
@@ -5278,11 +5279,11 @@
         <v>164</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D196, "00")&amp;"/"&amp;C196</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-008/info.json</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D196" s="3">
         <v>5</v>
@@ -5293,11 +5294,11 @@
         <v>165</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D197, "00")&amp;"/"&amp;C197</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-009/info.json</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D197" s="3">
         <v>5</v>
@@ -5308,11 +5309,11 @@
         <v>166</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D198, "00")&amp;"/"&amp;C198</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-009/info.json</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D198" s="3">
         <v>5</v>
@@ -5323,11 +5324,11 @@
         <v>167</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D199, "00")&amp;"/"&amp;C199</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-010/info.json</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D199" s="3">
         <v>5</v>
@@ -5338,11 +5339,11 @@
         <v>168</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D200, "00")&amp;"/"&amp;C200</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-011/info.json</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D200" s="3">
         <v>5</v>
@@ -5353,11 +5354,11 @@
         <v>169</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D201, "00")&amp;"/"&amp;C201</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-011/info.json</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D201" s="3">
         <v>5</v>
@@ -5368,11 +5369,11 @@
         <v>170</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D202, "00")&amp;"/"&amp;C202</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-012/info.json</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D202" s="3">
         <v>5</v>
@@ -5383,11 +5384,11 @@
         <v>170</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D203, "00")&amp;"/"&amp;C203</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-013/info.json</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D203" s="3">
         <v>5</v>
@@ -5398,11 +5399,11 @@
         <v>170</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D204, "00")&amp;"/"&amp;C204</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-014/info.json</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D204" s="3">
         <v>5</v>
@@ -5413,11 +5414,11 @@
         <v>171</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D205, "00")&amp;"/"&amp;C205</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-014/info.json</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D205" s="3">
         <v>5</v>
@@ -5428,11 +5429,11 @@
         <v>172</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D206, "00")&amp;"/"&amp;C206</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-015/info.json</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D206" s="3">
         <v>5</v>
@@ -5443,11 +5444,11 @@
         <v>173</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D207, "00")&amp;"/"&amp;C207</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-015/info.json</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D207" s="3">
         <v>5</v>
@@ -5458,11 +5459,11 @@
         <v>174</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D208, "00")&amp;"/"&amp;C208</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-016/info.json</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D208" s="3">
         <v>5</v>
@@ -5473,11 +5474,11 @@
         <v>175</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D209, "00")&amp;"/"&amp;C209</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D209" s="3">
         <v>5</v>
@@ -5488,11 +5489,11 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D210, "00")&amp;"/"&amp;C210</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D210" s="3">
         <v>5</v>
@@ -5503,11 +5504,11 @@
         <v>177</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D211, "00")&amp;"/"&amp;C211</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D211" s="3">
         <v>5</v>
@@ -5518,11 +5519,11 @@
         <v>178</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D212, "00")&amp;"/"&amp;C212</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D212" s="3">
         <v>5</v>
@@ -5533,11 +5534,11 @@
         <v>179</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D213, "00")&amp;"/"&amp;C213</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D213" s="3">
         <v>5</v>
@@ -5548,11 +5549,11 @@
         <v>180</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D214, "00")&amp;"/"&amp;C214</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D214" s="3">
         <v>5</v>
@@ -5563,11 +5564,11 @@
         <v>181</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D215, "00")&amp;"/"&amp;C215</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D215" s="3">
         <v>5</v>
@@ -5578,11 +5579,11 @@
         <v>182</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D216, "00")&amp;"/"&amp;C216</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D216" s="3">
         <v>5</v>
@@ -5593,11 +5594,11 @@
         <v>183</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D217, "00")&amp;"/"&amp;C217</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D217" s="3">
         <v>5</v>
@@ -5608,11 +5609,11 @@
         <v>184</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D218, "00")&amp;"/"&amp;C218</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D218" s="3">
         <v>5</v>
@@ -5623,11 +5624,11 @@
         <v>185</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D219, "00")&amp;"/"&amp;C219</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D219" s="3">
         <v>5</v>
@@ -5638,11 +5639,11 @@
         <v>186</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D220, "00")&amp;"/"&amp;C220</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D220" s="3">
         <v>5</v>
@@ -5653,11 +5654,11 @@
         <v>187</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D221, "00")&amp;"/"&amp;C221</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D221" s="3">
         <v>5</v>
@@ -5668,11 +5669,11 @@
         <v>188</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D222, "00")&amp;"/"&amp;C222</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D222" s="3">
         <v>5</v>
@@ -5683,11 +5684,11 @@
         <v>189</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D223, "00")&amp;"/"&amp;C223</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D223" s="3">
         <v>5</v>
@@ -5698,11 +5699,11 @@
         <v>190</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D224, "00")&amp;"/"&amp;C224</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D224" s="3">
         <v>5</v>
@@ -5713,11 +5714,11 @@
         <v>191</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D225, "00")&amp;"/"&amp;C225</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D225" s="3">
         <v>5</v>
@@ -5728,11 +5729,11 @@
         <v>192</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D226, "00")&amp;"/"&amp;C226</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D226" s="3">
         <v>5</v>
@@ -5743,11 +5744,11 @@
         <v>193</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D227, "00")&amp;"/"&amp;C227</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D227" s="3">
         <v>5</v>
@@ -5758,11 +5759,11 @@
         <v>194</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D228, "00")&amp;"/"&amp;C228</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-017/info.json</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D228" s="3">
         <v>5</v>
@@ -5773,11 +5774,11 @@
         <v>195</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D229, "00")&amp;"/"&amp;C229</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-018/info.json</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D229" s="3">
         <v>5</v>
@@ -5788,11 +5789,11 @@
         <v>196</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D230, "00")&amp;"/"&amp;C230</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-018/info.json</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D230" s="3">
         <v>5</v>
@@ -5803,11 +5804,11 @@
         <v>197</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-05/yanesen-05-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D231, "00")&amp;"/"&amp;C231</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-05/yanesen-05-018/info.json</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D231" s="3">
         <v>5</v>
@@ -5818,11 +5819,11 @@
         <v>198</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D232, "00")&amp;"/"&amp;C232</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-001/info.json</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D232" s="3">
         <v>8</v>
@@ -5833,11 +5834,11 @@
         <v>199</v>
       </c>
       <c r="B233" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D233, "00")&amp;"/"&amp;C233</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-002/info.json</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D233" s="3">
         <v>8</v>
@@ -5848,11 +5849,11 @@
         <v>200</v>
       </c>
       <c r="B234" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D234, "00")&amp;"/"&amp;C234</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-002/info.json</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D234" s="3">
         <v>8</v>
@@ -5863,11 +5864,11 @@
         <v>201</v>
       </c>
       <c r="B235" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D235, "00")&amp;"/"&amp;C235</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-002/info.json</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D235" s="3">
         <v>8</v>
@@ -5878,11 +5879,11 @@
         <v>202</v>
       </c>
       <c r="B236" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D236, "00")&amp;"/"&amp;C236</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-002/info.json</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D236" s="3">
         <v>8</v>
@@ -5893,11 +5894,11 @@
         <v>203</v>
       </c>
       <c r="B237" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D237, "00")&amp;"/"&amp;C237</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-003/info.json</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D237" s="3">
         <v>8</v>
@@ -5908,11 +5909,11 @@
         <v>203</v>
       </c>
       <c r="B238" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D238, "00")&amp;"/"&amp;C238</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-004/info.json</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D238" s="3">
         <v>8</v>
@@ -5923,11 +5924,11 @@
         <v>203</v>
       </c>
       <c r="B239" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D239, "00")&amp;"/"&amp;C239</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-005/info.json</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D239" s="3">
         <v>8</v>
@@ -5938,11 +5939,11 @@
         <v>203</v>
       </c>
       <c r="B240" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D240, "00")&amp;"/"&amp;C240</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-006/info.json</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D240" s="3">
         <v>8</v>
@@ -5953,11 +5954,11 @@
         <v>203</v>
       </c>
       <c r="B241" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D241, "00")&amp;"/"&amp;C241</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-007/info.json</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D241" s="3">
         <v>8</v>
@@ -5968,11 +5969,11 @@
         <v>204</v>
       </c>
       <c r="B242" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D242, "00")&amp;"/"&amp;C242</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-003/info.json</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D242" s="3">
         <v>8</v>
@@ -5983,11 +5984,11 @@
         <v>205</v>
       </c>
       <c r="B243" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D243, "00")&amp;"/"&amp;C243</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-004/info.json</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D243" s="3">
         <v>8</v>
@@ -5998,11 +5999,11 @@
         <v>206</v>
       </c>
       <c r="B244" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D244, "00")&amp;"/"&amp;C244</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-004/info.json</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D244" s="3">
         <v>8</v>
@@ -6013,11 +6014,11 @@
         <v>207</v>
       </c>
       <c r="B245" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D245, "00")&amp;"/"&amp;C245</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-004/info.json</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D245" s="3">
         <v>8</v>
@@ -6028,11 +6029,11 @@
         <v>208</v>
       </c>
       <c r="B246" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D246, "00")&amp;"/"&amp;C246</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-005/info.json</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D246" s="3">
         <v>8</v>
@@ -6043,11 +6044,11 @@
         <v>209</v>
       </c>
       <c r="B247" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D247, "00")&amp;"/"&amp;C247</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-005/info.json</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D247" s="3">
         <v>8</v>
@@ -6058,11 +6059,11 @@
         <v>210</v>
       </c>
       <c r="B248" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D248, "00")&amp;"/"&amp;C248</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-006/info.json</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D248" s="3">
         <v>8</v>
@@ -6073,11 +6074,11 @@
         <v>211</v>
       </c>
       <c r="B249" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D249, "00")&amp;"/"&amp;C249</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-006/info.json</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D249" s="3">
         <v>8</v>
@@ -6088,11 +6089,11 @@
         <v>212</v>
       </c>
       <c r="B250" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D250, "00")&amp;"/"&amp;C250</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-007/info.json</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D250" s="3">
         <v>8</v>
@@ -6103,11 +6104,11 @@
         <v>213</v>
       </c>
       <c r="B251" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D251, "00")&amp;"/"&amp;C251</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-007/info.json</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D251" s="3">
         <v>8</v>
@@ -6118,11 +6119,11 @@
         <v>214</v>
       </c>
       <c r="B252" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D252, "00")&amp;"/"&amp;C252</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-007/info.json</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D252" s="3">
         <v>8</v>
@@ -6133,11 +6134,11 @@
         <v>215</v>
       </c>
       <c r="B253" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D253, "00")&amp;"/"&amp;C253</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-007/info.json</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D253" s="3">
         <v>8</v>
@@ -6148,11 +6149,11 @@
         <v>216</v>
       </c>
       <c r="B254" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D254, "00")&amp;"/"&amp;C254</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-008/info.json</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D254" s="3">
         <v>8</v>
@@ -6163,11 +6164,11 @@
         <v>216</v>
       </c>
       <c r="B255" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D255, "00")&amp;"/"&amp;C255</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-009/info.json</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D255" s="3">
         <v>8</v>
@@ -6178,11 +6179,11 @@
         <v>216</v>
       </c>
       <c r="B256" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D256, "00")&amp;"/"&amp;C256</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-010/info.json</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D256" s="3">
         <v>8</v>
@@ -6193,11 +6194,11 @@
         <v>217</v>
       </c>
       <c r="B257" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D257, "00")&amp;"/"&amp;C257</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-008/info.json</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D257" s="3">
         <v>8</v>
@@ -6208,11 +6209,11 @@
         <v>217</v>
       </c>
       <c r="B258" s="1" t="str">
-        <f t="shared" ref="B258:B321" si="4">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D258, "00")&amp;"/"&amp;C258</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D258, "00")&amp;"/"&amp;C258</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-009/info.json</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D258" s="3">
         <v>8</v>
@@ -6223,11 +6224,11 @@
         <v>217</v>
       </c>
       <c r="B259" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D259, "00")&amp;"/"&amp;C259</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-010/info.json</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D259" s="3">
         <v>8</v>
@@ -6238,11 +6239,11 @@
         <v>218</v>
       </c>
       <c r="B260" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D260, "00")&amp;"/"&amp;C260</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-010/info.json</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D260" s="3">
         <v>8</v>
@@ -6253,11 +6254,11 @@
         <v>219</v>
       </c>
       <c r="B261" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D261, "00")&amp;"/"&amp;C261</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-011/info.json</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D261" s="3">
         <v>8</v>
@@ -6268,11 +6269,11 @@
         <v>220</v>
       </c>
       <c r="B262" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D262, "00")&amp;"/"&amp;C262</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-012/info.json</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D262" s="3">
         <v>8</v>
@@ -6283,11 +6284,11 @@
         <v>221</v>
       </c>
       <c r="B263" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D263, "00")&amp;"/"&amp;C263</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-012/info.json</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D263" s="3">
         <v>8</v>
@@ -6298,11 +6299,11 @@
         <v>221</v>
       </c>
       <c r="B264" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D264, "00")&amp;"/"&amp;C264</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-013/info.json</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D264" s="3">
         <v>8</v>
@@ -6313,11 +6314,11 @@
         <v>221</v>
       </c>
       <c r="B265" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D265, "00")&amp;"/"&amp;C265</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-014/info.json</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D265" s="3">
         <v>8</v>
@@ -6328,11 +6329,11 @@
         <v>222</v>
       </c>
       <c r="B266" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D266, "00")&amp;"/"&amp;C266</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-012/info.json</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D266" s="3">
         <v>8</v>
@@ -6343,11 +6344,11 @@
         <v>222</v>
       </c>
       <c r="B267" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D267, "00")&amp;"/"&amp;C267</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-013/info.json</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D267" s="3">
         <v>8</v>
@@ -6358,11 +6359,11 @@
         <v>222</v>
       </c>
       <c r="B268" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D268, "00")&amp;"/"&amp;C268</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-014/info.json</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D268" s="3">
         <v>8</v>
@@ -6373,11 +6374,11 @@
         <v>223</v>
       </c>
       <c r="B269" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D269, "00")&amp;"/"&amp;C269</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-014/info.json</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D269" s="3">
         <v>8</v>
@@ -6388,11 +6389,11 @@
         <v>224</v>
       </c>
       <c r="B270" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D270, "00")&amp;"/"&amp;C270</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-015/info.json</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D270" s="3">
         <v>8</v>
@@ -6403,11 +6404,11 @@
         <v>225</v>
       </c>
       <c r="B271" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D271, "00")&amp;"/"&amp;C271</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-015/info.json</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D271" s="3">
         <v>8</v>
@@ -6418,11 +6419,11 @@
         <v>226</v>
       </c>
       <c r="B272" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D272, "00")&amp;"/"&amp;C272</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-015/info.json</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D272" s="3">
         <v>8</v>
@@ -6433,11 +6434,11 @@
         <v>227</v>
       </c>
       <c r="B273" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D273, "00")&amp;"/"&amp;C273</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-016/info.json</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D273" s="3">
         <v>8</v>
@@ -6448,11 +6449,11 @@
         <v>228</v>
       </c>
       <c r="B274" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D274, "00")&amp;"/"&amp;C274</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-017/info.json</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D274" s="3">
         <v>8</v>
@@ -6463,11 +6464,11 @@
         <v>229</v>
       </c>
       <c r="B275" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D275, "00")&amp;"/"&amp;C275</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-017/info.json</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D275" s="3">
         <v>8</v>
@@ -6478,11 +6479,11 @@
         <v>230</v>
       </c>
       <c r="B276" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D276, "00")&amp;"/"&amp;C276</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-017/info.json</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D276" s="3">
         <v>8</v>
@@ -6493,11 +6494,11 @@
         <v>231</v>
       </c>
       <c r="B277" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D277, "00")&amp;"/"&amp;C277</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D277" s="3">
         <v>8</v>
@@ -6508,11 +6509,11 @@
         <v>232</v>
       </c>
       <c r="B278" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D278, "00")&amp;"/"&amp;C278</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D278" s="3">
         <v>8</v>
@@ -6523,11 +6524,11 @@
         <v>233</v>
       </c>
       <c r="B279" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D279, "00")&amp;"/"&amp;C279</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D279" s="3">
         <v>8</v>
@@ -6538,11 +6539,11 @@
         <v>234</v>
       </c>
       <c r="B280" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D280, "00")&amp;"/"&amp;C280</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D280" s="3">
         <v>8</v>
@@ -6553,11 +6554,11 @@
         <v>235</v>
       </c>
       <c r="B281" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D281, "00")&amp;"/"&amp;C281</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D281" s="3">
         <v>8</v>
@@ -6568,11 +6569,11 @@
         <v>236</v>
       </c>
       <c r="B282" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D282, "00")&amp;"/"&amp;C282</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D282" s="3">
         <v>8</v>
@@ -6583,11 +6584,11 @@
         <v>237</v>
       </c>
       <c r="B283" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D283, "00")&amp;"/"&amp;C283</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-018/info.json</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D283" s="3">
         <v>8</v>
@@ -6598,11 +6599,11 @@
         <v>238</v>
       </c>
       <c r="B284" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D284, "00")&amp;"/"&amp;C284</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-019/info.json</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D284" s="3">
         <v>8</v>
@@ -6613,11 +6614,11 @@
         <v>239</v>
       </c>
       <c r="B285" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D285, "00")&amp;"/"&amp;C285</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-019/info.json</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D285" s="3">
         <v>8</v>
@@ -6628,11 +6629,11 @@
         <v>240</v>
       </c>
       <c r="B286" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D286, "00")&amp;"/"&amp;C286</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-019/info.json</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D286" s="3">
         <v>8</v>
@@ -6643,11 +6644,11 @@
         <v>241</v>
       </c>
       <c r="B287" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D287, "00")&amp;"/"&amp;C287</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-020/info.json</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D287" s="3">
         <v>8</v>
@@ -6658,11 +6659,11 @@
         <v>242</v>
       </c>
       <c r="B288" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D288, "00")&amp;"/"&amp;C288</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-020/info.json</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D288" s="3">
         <v>8</v>
@@ -6673,11 +6674,11 @@
         <v>243</v>
       </c>
       <c r="B289" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-08/yanesen-08-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D289, "00")&amp;"/"&amp;C289</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-08/yanesen-08-020/info.json</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D289" s="3">
         <v>8</v>
@@ -6688,11 +6689,11 @@
         <v>244</v>
       </c>
       <c r="B290" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D290, "00")&amp;"/"&amp;C290</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-001/info.json</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D290" s="3">
         <v>4</v>
@@ -6703,11 +6704,11 @@
         <v>245</v>
       </c>
       <c r="B291" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D291, "00")&amp;"/"&amp;C291</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-002/info.json</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D291" s="3">
         <v>4</v>
@@ -6718,11 +6719,11 @@
         <v>246</v>
       </c>
       <c r="B292" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D292, "00")&amp;"/"&amp;C292</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-002/info.json</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D292" s="3">
         <v>4</v>
@@ -6733,11 +6734,11 @@
         <v>247</v>
       </c>
       <c r="B293" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D293, "00")&amp;"/"&amp;C293</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-002/info.json</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D293" s="3">
         <v>4</v>
@@ -6748,11 +6749,11 @@
         <v>248</v>
       </c>
       <c r="B294" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D294, "00")&amp;"/"&amp;C294</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-002/info.json</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D294" s="3">
         <v>4</v>
@@ -6763,11 +6764,11 @@
         <v>249</v>
       </c>
       <c r="B295" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D295, "00")&amp;"/"&amp;C295</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-003/info.json</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D295" s="3">
         <v>4</v>
@@ -6778,11 +6779,11 @@
         <v>250</v>
       </c>
       <c r="B296" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D296, "00")&amp;"/"&amp;C296</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-004/info.json</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D296" s="3">
         <v>4</v>
@@ -6793,11 +6794,11 @@
         <v>250</v>
       </c>
       <c r="B297" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D297, "00")&amp;"/"&amp;C297</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-005/info.json</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D297" s="3">
         <v>4</v>
@@ -6808,11 +6809,11 @@
         <v>250</v>
       </c>
       <c r="B298" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D298, "00")&amp;"/"&amp;C298</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-006/info.json</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D298" s="3">
         <v>4</v>
@@ -6823,11 +6824,11 @@
         <v>250</v>
       </c>
       <c r="B299" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D299, "00")&amp;"/"&amp;C299</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-007/info.json</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D299" s="3">
         <v>4</v>
@@ -6838,11 +6839,11 @@
         <v>250</v>
       </c>
       <c r="B300" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D300, "00")&amp;"/"&amp;C300</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-008/info.json</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D300" s="3">
         <v>4</v>
@@ -6853,11 +6854,11 @@
         <v>251</v>
       </c>
       <c r="B301" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D301, "00")&amp;"/"&amp;C301</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-004/info.json</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D301" s="3">
         <v>4</v>
@@ -6868,11 +6869,11 @@
         <v>252</v>
       </c>
       <c r="B302" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D302, "00")&amp;"/"&amp;C302</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-005/info.json</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D302" s="3">
         <v>4</v>
@@ -6883,11 +6884,11 @@
         <v>253</v>
       </c>
       <c r="B303" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D303, "00")&amp;"/"&amp;C303</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-005/info.json</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D303" s="3">
         <v>4</v>
@@ -6898,11 +6899,11 @@
         <v>254</v>
       </c>
       <c r="B304" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D304, "00")&amp;"/"&amp;C304</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-006/info.json</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D304" s="3">
         <v>4</v>
@@ -6913,11 +6914,11 @@
         <v>255</v>
       </c>
       <c r="B305" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D305, "00")&amp;"/"&amp;C305</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-007/info.json</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D305" s="3">
         <v>4</v>
@@ -6928,11 +6929,11 @@
         <v>256</v>
       </c>
       <c r="B306" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D306, "00")&amp;"/"&amp;C306</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-007/info.json</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D306" s="3">
         <v>4</v>
@@ -6943,11 +6944,11 @@
         <v>256</v>
       </c>
       <c r="B307" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D307, "00")&amp;"/"&amp;C307</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-008/info.json</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D307" s="3">
         <v>4</v>
@@ -6958,11 +6959,11 @@
         <v>257</v>
       </c>
       <c r="B308" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D308, "00")&amp;"/"&amp;C308</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-008/info.json</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D308" s="3">
         <v>4</v>
@@ -6973,11 +6974,11 @@
         <v>258</v>
       </c>
       <c r="B309" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D309, "00")&amp;"/"&amp;C309</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-004/info.json</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D309" s="3">
         <v>4</v>
@@ -6988,11 +6989,11 @@
         <v>258</v>
       </c>
       <c r="B310" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D310, "00")&amp;"/"&amp;C310</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-005/info.json</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D310" s="3">
         <v>4</v>
@@ -7003,11 +7004,11 @@
         <v>259</v>
       </c>
       <c r="B311" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D311, "00")&amp;"/"&amp;C311</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-005/info.json</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D311" s="3">
         <v>4</v>
@@ -7018,11 +7019,11 @@
         <v>260</v>
       </c>
       <c r="B312" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D312, "00")&amp;"/"&amp;C312</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-007/info.json</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D312" s="3">
         <v>4</v>
@@ -7033,11 +7034,11 @@
         <v>260</v>
       </c>
       <c r="B313" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D313, "00")&amp;"/"&amp;C313</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-008/info.json</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D313" s="3">
         <v>4</v>
@@ -7048,11 +7049,11 @@
         <v>261</v>
       </c>
       <c r="B314" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D314, "00")&amp;"/"&amp;C314</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-008/info.json</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D314" s="3">
         <v>4</v>
@@ -7063,11 +7064,11 @@
         <v>262</v>
       </c>
       <c r="B315" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D315, "00")&amp;"/"&amp;C315</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-009/info.json</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D315" s="3">
         <v>4</v>
@@ -7078,11 +7079,11 @@
         <v>263</v>
       </c>
       <c r="B316" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D316, "00")&amp;"/"&amp;C316</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-009/info.json</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D316" s="3">
         <v>4</v>
@@ -7093,11 +7094,11 @@
         <v>264</v>
       </c>
       <c r="B317" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D317, "00")&amp;"/"&amp;C317</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-010/info.json</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D317" s="3">
         <v>4</v>
@@ -7108,11 +7109,11 @@
         <v>265</v>
       </c>
       <c r="B318" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D318, "00")&amp;"/"&amp;C318</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-011/info.json</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D318" s="3">
         <v>4</v>
@@ -7123,11 +7124,11 @@
         <v>265</v>
       </c>
       <c r="B319" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D319, "00")&amp;"/"&amp;C319</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-012/info.json</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D319" s="3">
         <v>4</v>
@@ -7138,11 +7139,11 @@
         <v>266</v>
       </c>
       <c r="B320" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D320, "00")&amp;"/"&amp;C320</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-011/info.json</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D320" s="3">
         <v>4</v>
@@ -7153,11 +7154,11 @@
         <v>266</v>
       </c>
       <c r="B321" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D321, "00")&amp;"/"&amp;C321</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-012/info.json</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D321" s="3">
         <v>4</v>
@@ -7168,11 +7169,11 @@
         <v>267</v>
       </c>
       <c r="B322" s="1" t="str">
-        <f t="shared" ref="B322:B385" si="5">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D322, "00")&amp;"/"&amp;C322</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D322, "00")&amp;"/"&amp;C322</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-013/info.json</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D322" s="3">
         <v>4</v>
@@ -7183,11 +7184,11 @@
         <v>268</v>
       </c>
       <c r="B323" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D323, "00")&amp;"/"&amp;C323</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-013/info.json</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D323" s="3">
         <v>4</v>
@@ -7198,11 +7199,11 @@
         <v>269</v>
       </c>
       <c r="B324" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D324, "00")&amp;"/"&amp;C324</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-013/info.json</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D324" s="3">
         <v>4</v>
@@ -7213,11 +7214,11 @@
         <v>270</v>
       </c>
       <c r="B325" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D325, "00")&amp;"/"&amp;C325</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-014/info.json</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D325" s="3">
         <v>4</v>
@@ -7228,11 +7229,11 @@
         <v>271</v>
       </c>
       <c r="B326" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D326, "00")&amp;"/"&amp;C326</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-015/info.json</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D326" s="3">
         <v>4</v>
@@ -7243,11 +7244,11 @@
         <v>272</v>
       </c>
       <c r="B327" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D327, "00")&amp;"/"&amp;C327</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D327" s="3">
         <v>4</v>
@@ -7258,11 +7259,11 @@
         <v>273</v>
       </c>
       <c r="B328" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D328, "00")&amp;"/"&amp;C328</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D328" s="3">
         <v>4</v>
@@ -7273,11 +7274,11 @@
         <v>274</v>
       </c>
       <c r="B329" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D329, "00")&amp;"/"&amp;C329</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D329" s="3">
         <v>4</v>
@@ -7288,11 +7289,11 @@
         <v>275</v>
       </c>
       <c r="B330" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D330, "00")&amp;"/"&amp;C330</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D330" s="3">
         <v>4</v>
@@ -7303,11 +7304,11 @@
         <v>276</v>
       </c>
       <c r="B331" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D331, "00")&amp;"/"&amp;C331</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D331" s="3">
         <v>4</v>
@@ -7318,11 +7319,11 @@
         <v>277</v>
       </c>
       <c r="B332" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D332, "00")&amp;"/"&amp;C332</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D332" s="3">
         <v>4</v>
@@ -7333,11 +7334,11 @@
         <v>278</v>
       </c>
       <c r="B333" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D333, "00")&amp;"/"&amp;C333</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D333" s="3">
         <v>4</v>
@@ -7348,11 +7349,11 @@
         <v>279</v>
       </c>
       <c r="B334" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D334, "00")&amp;"/"&amp;C334</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D334" s="3">
         <v>4</v>
@@ -7363,11 +7364,11 @@
         <v>280</v>
       </c>
       <c r="B335" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D335, "00")&amp;"/"&amp;C335</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D335" s="3">
         <v>4</v>
@@ -7378,11 +7379,11 @@
         <v>281</v>
       </c>
       <c r="B336" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D336, "00")&amp;"/"&amp;C336</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D336" s="3">
         <v>4</v>
@@ -7393,11 +7394,11 @@
         <v>282</v>
       </c>
       <c r="B337" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D337, "00")&amp;"/"&amp;C337</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D337" s="3">
         <v>4</v>
@@ -7408,11 +7409,11 @@
         <v>283</v>
       </c>
       <c r="B338" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D338, "00")&amp;"/"&amp;C338</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D338" s="3">
         <v>4</v>
@@ -7423,11 +7424,11 @@
         <v>284</v>
       </c>
       <c r="B339" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D339, "00")&amp;"/"&amp;C339</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D339" s="3">
         <v>4</v>
@@ -7438,11 +7439,11 @@
         <v>285</v>
       </c>
       <c r="B340" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D340, "00")&amp;"/"&amp;C340</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D340" s="3">
         <v>4</v>
@@ -7453,11 +7454,11 @@
         <v>286</v>
       </c>
       <c r="B341" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D341, "00")&amp;"/"&amp;C341</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D341" s="3">
         <v>4</v>
@@ -7468,11 +7469,11 @@
         <v>287</v>
       </c>
       <c r="B342" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D342, "00")&amp;"/"&amp;C342</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-016/info.json</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D342" s="3">
         <v>4</v>
@@ -7483,11 +7484,11 @@
         <v>288</v>
       </c>
       <c r="B343" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D343, "00")&amp;"/"&amp;C343</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-017/info.json</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D343" s="3">
         <v>4</v>
@@ -7498,11 +7499,11 @@
         <v>289</v>
       </c>
       <c r="B344" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D344, "00")&amp;"/"&amp;C344</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-017/info.json</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D344" s="3">
         <v>4</v>
@@ -7513,11 +7514,11 @@
         <v>290</v>
       </c>
       <c r="B345" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D345, "00")&amp;"/"&amp;C345</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-018/info.json</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D345" s="3">
         <v>4</v>
@@ -7528,11 +7529,11 @@
         <v>291</v>
       </c>
       <c r="B346" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D346, "00")&amp;"/"&amp;C346</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-018/info.json</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D346" s="3">
         <v>4</v>
@@ -7543,11 +7544,11 @@
         <v>292</v>
       </c>
       <c r="B347" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-04/yanesen-04-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D347, "00")&amp;"/"&amp;C347</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-04/yanesen-04-018/info.json</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D347" s="3">
         <v>4</v>
@@ -7558,11 +7559,11 @@
         <v>293</v>
       </c>
       <c r="B348" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D348, "00")&amp;"/"&amp;C348</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-001/info.json</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D348" s="3">
         <v>9</v>
@@ -7573,11 +7574,11 @@
         <v>294</v>
       </c>
       <c r="B349" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D349, "00")&amp;"/"&amp;C349</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-002/info.json</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D349" s="3">
         <v>9</v>
@@ -7588,11 +7589,11 @@
         <v>295</v>
       </c>
       <c r="B350" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D350, "00")&amp;"/"&amp;C350</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-002/info.json</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D350" s="3">
         <v>9</v>
@@ -7603,11 +7604,11 @@
         <v>296</v>
       </c>
       <c r="B351" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D351, "00")&amp;"/"&amp;C351</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-002/info.json</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D351" s="3">
         <v>9</v>
@@ -7618,11 +7619,11 @@
         <v>297</v>
       </c>
       <c r="B352" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D352, "00")&amp;"/"&amp;C352</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-002/info.json</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D352" s="3">
         <v>9</v>
@@ -7633,11 +7634,11 @@
         <v>298</v>
       </c>
       <c r="B353" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D353, "00")&amp;"/"&amp;C353</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-003/info.json</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D353" s="3">
         <v>9</v>
@@ -7648,11 +7649,11 @@
         <v>298</v>
       </c>
       <c r="B354" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D354, "00")&amp;"/"&amp;C354</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-004/info.json</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D354" s="3">
         <v>9</v>
@@ -7663,11 +7664,11 @@
         <v>298</v>
       </c>
       <c r="B355" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D355, "00")&amp;"/"&amp;C355</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-005/info.json</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D355" s="3">
         <v>9</v>
@@ -7678,11 +7679,11 @@
         <v>298</v>
       </c>
       <c r="B356" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D356, "00")&amp;"/"&amp;C356</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-006/info.json</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D356" s="3">
         <v>9</v>
@@ -7693,11 +7694,11 @@
         <v>298</v>
       </c>
       <c r="B357" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D357, "00")&amp;"/"&amp;C357</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-007/info.json</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D357" s="3">
         <v>9</v>
@@ -7708,11 +7709,11 @@
         <v>298</v>
       </c>
       <c r="B358" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D358, "00")&amp;"/"&amp;C358</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-008/info.json</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D358" s="3">
         <v>9</v>
@@ -7723,11 +7724,11 @@
         <v>299</v>
       </c>
       <c r="B359" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D359, "00")&amp;"/"&amp;C359</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-003/info.json</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D359" s="3">
         <v>9</v>
@@ -7738,11 +7739,11 @@
         <v>300</v>
       </c>
       <c r="B360" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D360, "00")&amp;"/"&amp;C360</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-004/info.json</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D360" s="3">
         <v>9</v>
@@ -7753,11 +7754,11 @@
         <v>300</v>
       </c>
       <c r="B361" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D361, "00")&amp;"/"&amp;C361</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-005/info.json</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D361" s="3">
         <v>9</v>
@@ -7768,11 +7769,11 @@
         <v>301</v>
       </c>
       <c r="B362" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D362, "00")&amp;"/"&amp;C362</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-004/info.json</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D362" s="3">
         <v>9</v>
@@ -7783,11 +7784,11 @@
         <v>302</v>
       </c>
       <c r="B363" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D363, "00")&amp;"/"&amp;C363</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-005/info.json</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D363" s="3">
         <v>9</v>
@@ -7798,11 +7799,11 @@
         <v>303</v>
       </c>
       <c r="B364" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D364, "00")&amp;"/"&amp;C364</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-006/info.json</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D364" s="3">
         <v>9</v>
@@ -7813,11 +7814,11 @@
         <v>304</v>
       </c>
       <c r="B365" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D365, "00")&amp;"/"&amp;C365</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-006/info.json</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D365" s="3">
         <v>9</v>
@@ -7828,11 +7829,11 @@
         <v>304</v>
       </c>
       <c r="B366" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D366, "00")&amp;"/"&amp;C366</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-007/info.json</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D366" s="3">
         <v>9</v>
@@ -7843,11 +7844,11 @@
         <v>305</v>
       </c>
       <c r="B367" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D367, "00")&amp;"/"&amp;C367</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-007/info.json</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D367" s="3">
         <v>9</v>
@@ -7858,11 +7859,11 @@
         <v>305</v>
       </c>
       <c r="B368" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D368, "00")&amp;"/"&amp;C368</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-008/info.json</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D368" s="3">
         <v>9</v>
@@ -7873,11 +7874,11 @@
         <v>306</v>
       </c>
       <c r="B369" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D369, "00")&amp;"/"&amp;C369</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-008/info.json</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D369" s="3">
         <v>9</v>
@@ -7888,11 +7889,11 @@
         <v>307</v>
       </c>
       <c r="B370" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D370, "00")&amp;"/"&amp;C370</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-009/info.json</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D370" s="3">
         <v>9</v>
@@ -7903,11 +7904,11 @@
         <v>308</v>
       </c>
       <c r="B371" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D371, "00")&amp;"/"&amp;C371</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-010/info.json</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D371" s="3">
         <v>9</v>
@@ -7918,11 +7919,11 @@
         <v>309</v>
       </c>
       <c r="B372" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D372, "00")&amp;"/"&amp;C372</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-010/info.json</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D372" s="3">
         <v>9</v>
@@ -7933,11 +7934,11 @@
         <v>310</v>
       </c>
       <c r="B373" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D373, "00")&amp;"/"&amp;C373</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-011/info.json</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D373" s="3">
         <v>9</v>
@@ -7948,11 +7949,11 @@
         <v>311</v>
       </c>
       <c r="B374" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D374, "00")&amp;"/"&amp;C374</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-012/info.json</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D374" s="3">
         <v>9</v>
@@ -7963,11 +7964,11 @@
         <v>312</v>
       </c>
       <c r="B375" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D375, "00")&amp;"/"&amp;C375</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-012/info.json</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D375" s="3">
         <v>9</v>
@@ -7978,11 +7979,11 @@
         <v>312</v>
       </c>
       <c r="B376" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D376, "00")&amp;"/"&amp;C376</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-013/info.json</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D376" s="3">
         <v>9</v>
@@ -7993,11 +7994,11 @@
         <v>312</v>
       </c>
       <c r="B377" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D377, "00")&amp;"/"&amp;C377</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-014/info.json</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D377" s="3">
         <v>9</v>
@@ -8008,11 +8009,11 @@
         <v>313</v>
       </c>
       <c r="B378" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D378, "00")&amp;"/"&amp;C378</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-012/info.json</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D378" s="3">
         <v>9</v>
@@ -8023,11 +8024,11 @@
         <v>313</v>
       </c>
       <c r="B379" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D379, "00")&amp;"/"&amp;C379</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-013/info.json</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D379" s="3">
         <v>9</v>
@@ -8038,11 +8039,11 @@
         <v>314</v>
       </c>
       <c r="B380" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D380, "00")&amp;"/"&amp;C380</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-014/info.json</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D380" s="3">
         <v>9</v>
@@ -8053,11 +8054,11 @@
         <v>315</v>
       </c>
       <c r="B381" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D381, "00")&amp;"/"&amp;C381</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-015/info.json</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D381" s="3">
         <v>9</v>
@@ -8068,11 +8069,11 @@
         <v>316</v>
       </c>
       <c r="B382" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D382, "00")&amp;"/"&amp;C382</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-015/info.json</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D382" s="3">
         <v>9</v>
@@ -8083,11 +8084,11 @@
         <v>317</v>
       </c>
       <c r="B383" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D383, "00")&amp;"/"&amp;C383</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-016/info.json</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D383" s="3">
         <v>9</v>
@@ -8098,11 +8099,11 @@
         <v>318</v>
       </c>
       <c r="B384" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D384, "00")&amp;"/"&amp;C384</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-016/info.json</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D384" s="3">
         <v>9</v>
@@ -8113,11 +8114,11 @@
         <v>319</v>
       </c>
       <c r="B385" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D385, "00")&amp;"/"&amp;C385</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-016/info.json</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D385" s="3">
         <v>9</v>
@@ -8128,11 +8129,11 @@
         <v>320</v>
       </c>
       <c r="B386" s="1" t="str">
-        <f t="shared" ref="B386:B449" si="6">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D386, "00")&amp;"/"&amp;C386</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D386, "00")&amp;"/"&amp;C386</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-016/info.json</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D386" s="3">
         <v>9</v>
@@ -8143,11 +8144,11 @@
         <v>321</v>
       </c>
       <c r="B387" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D387, "00")&amp;"/"&amp;C387</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-016/info.json</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D387" s="3">
         <v>9</v>
@@ -8158,11 +8159,11 @@
         <v>322</v>
       </c>
       <c r="B388" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D388, "00")&amp;"/"&amp;C388</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-017/info.json</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D388" s="3">
         <v>9</v>
@@ -8173,11 +8174,11 @@
         <v>323</v>
       </c>
       <c r="B389" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D389, "00")&amp;"/"&amp;C389</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-018/info.json</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D389" s="3">
         <v>9</v>
@@ -8188,11 +8189,11 @@
         <v>324</v>
       </c>
       <c r="B390" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D390, "00")&amp;"/"&amp;C390</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-018/info.json</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D390" s="3">
         <v>9</v>
@@ -8203,11 +8204,11 @@
         <v>325</v>
       </c>
       <c r="B391" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D391, "00")&amp;"/"&amp;C391</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-018/info.json</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D391" s="3">
         <v>9</v>
@@ -8218,11 +8219,11 @@
         <v>326</v>
       </c>
       <c r="B392" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D392, "00")&amp;"/"&amp;C392</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-018/info.json</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D392" s="3">
         <v>9</v>
@@ -8233,11 +8234,11 @@
         <v>327</v>
       </c>
       <c r="B393" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D393, "00")&amp;"/"&amp;C393</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-019/info.json</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D393" s="3">
         <v>9</v>
@@ -8248,11 +8249,11 @@
         <v>328</v>
       </c>
       <c r="B394" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-019.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D394, "00")&amp;"/"&amp;C394</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-019/info.json</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D394" s="3">
         <v>9</v>
@@ -8263,11 +8264,11 @@
         <v>329</v>
       </c>
       <c r="B395" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D395, "00")&amp;"/"&amp;C395</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-020/info.json</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D395" s="3">
         <v>9</v>
@@ -8278,11 +8279,11 @@
         <v>330</v>
       </c>
       <c r="B396" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D396, "00")&amp;"/"&amp;C396</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-020/info.json</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D396" s="3">
         <v>9</v>
@@ -8293,11 +8294,11 @@
         <v>331</v>
       </c>
       <c r="B397" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-09/yanesen-09-020.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D397, "00")&amp;"/"&amp;C397</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-09/yanesen-09-020/info.json</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D397" s="3">
         <v>9</v>
@@ -8308,11 +8309,11 @@
         <v>332</v>
       </c>
       <c r="B398" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D398, "00")&amp;"/"&amp;C398</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-001/info.json</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D398" s="3">
         <v>7</v>
@@ -8323,11 +8324,11 @@
         <v>333</v>
       </c>
       <c r="B399" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D399, "00")&amp;"/"&amp;C399</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-002/info.json</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D399" s="3">
         <v>7</v>
@@ -8338,11 +8339,11 @@
         <v>334</v>
       </c>
       <c r="B400" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D400, "00")&amp;"/"&amp;C400</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-002/info.json</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D400" s="3">
         <v>7</v>
@@ -8353,11 +8354,11 @@
         <v>335</v>
       </c>
       <c r="B401" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D401, "00")&amp;"/"&amp;C401</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-002/info.json</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D401" s="3">
         <v>7</v>
@@ -8368,11 +8369,11 @@
         <v>336</v>
       </c>
       <c r="B402" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D402, "00")&amp;"/"&amp;C402</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-002/info.json</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D402" s="3">
         <v>7</v>
@@ -8383,11 +8384,11 @@
         <v>337</v>
       </c>
       <c r="B403" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D403, "00")&amp;"/"&amp;C403</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-003/info.json</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D403" s="3">
         <v>7</v>
@@ -8398,11 +8399,11 @@
         <v>338</v>
       </c>
       <c r="B404" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D404, "00")&amp;"/"&amp;C404</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-004/info.json</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D404" s="3">
         <v>7</v>
@@ -8413,11 +8414,11 @@
         <v>338</v>
       </c>
       <c r="B405" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D405, "00")&amp;"/"&amp;C405</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D405" s="3">
         <v>7</v>
@@ -8428,11 +8429,11 @@
         <v>338</v>
       </c>
       <c r="B406" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D406, "00")&amp;"/"&amp;C406</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D406" s="3">
         <v>7</v>
@@ -8443,11 +8444,11 @@
         <v>338</v>
       </c>
       <c r="B407" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D407, "00")&amp;"/"&amp;C407</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-007/info.json</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D407" s="3">
         <v>7</v>
@@ -8458,11 +8459,11 @@
         <v>338</v>
       </c>
       <c r="B408" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D408, "00")&amp;"/"&amp;C408</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-008/info.json</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D408" s="3">
         <v>7</v>
@@ -8473,11 +8474,11 @@
         <v>339</v>
       </c>
       <c r="B409" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D409, "00")&amp;"/"&amp;C409</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-004/info.json</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D409" s="3">
         <v>7</v>
@@ -8488,11 +8489,11 @@
         <v>340</v>
       </c>
       <c r="B410" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D410, "00")&amp;"/"&amp;C410</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D410" s="3">
         <v>7</v>
@@ -8503,11 +8504,11 @@
         <v>340</v>
       </c>
       <c r="B411" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D411, "00")&amp;"/"&amp;C411</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D411" s="3">
         <v>7</v>
@@ -8518,11 +8519,11 @@
         <v>341</v>
       </c>
       <c r="B412" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D412, "00")&amp;"/"&amp;C412</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D412" s="3">
         <v>7</v>
@@ -8533,11 +8534,11 @@
         <v>342</v>
       </c>
       <c r="B413" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D413, "00")&amp;"/"&amp;C413</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D413" s="3">
         <v>7</v>
@@ -8548,11 +8549,11 @@
         <v>343</v>
       </c>
       <c r="B414" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D414, "00")&amp;"/"&amp;C414</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D414" s="3">
         <v>7</v>
@@ -8563,11 +8564,11 @@
         <v>343</v>
       </c>
       <c r="B415" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D415, "00")&amp;"/"&amp;C415</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D415" s="3">
         <v>7</v>
@@ -8578,11 +8579,11 @@
         <v>344</v>
       </c>
       <c r="B416" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D416, "00")&amp;"/"&amp;C416</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D416" s="3">
         <v>7</v>
@@ -8593,11 +8594,11 @@
         <v>345</v>
       </c>
       <c r="B417" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D417, "00")&amp;"/"&amp;C417</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D417" s="3">
         <v>7</v>
@@ -8608,11 +8609,11 @@
         <v>346</v>
       </c>
       <c r="B418" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D418, "00")&amp;"/"&amp;C418</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D418" s="3">
         <v>7</v>
@@ -8623,11 +8624,11 @@
         <v>347</v>
       </c>
       <c r="B419" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D419, "00")&amp;"/"&amp;C419</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D419" s="3">
         <v>7</v>
@@ -8638,11 +8639,11 @@
         <v>348</v>
       </c>
       <c r="B420" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D420, "00")&amp;"/"&amp;C420</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-005/info.json</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D420" s="3">
         <v>7</v>
@@ -8653,11 +8654,11 @@
         <v>348</v>
       </c>
       <c r="B421" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D421, "00")&amp;"/"&amp;C421</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D421" s="3">
         <v>7</v>
@@ -8668,11 +8669,11 @@
         <v>349</v>
       </c>
       <c r="B422" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D422, "00")&amp;"/"&amp;C422</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-006/info.json</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D422" s="3">
         <v>7</v>
@@ -8683,11 +8684,11 @@
         <v>350</v>
       </c>
       <c r="B423" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D423, "00")&amp;"/"&amp;C423</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-007/info.json</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D423" s="3">
         <v>7</v>
@@ -8698,11 +8699,11 @@
         <v>351</v>
       </c>
       <c r="B424" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D424, "00")&amp;"/"&amp;C424</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-007/info.json</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D424" s="3">
         <v>7</v>
@@ -8713,11 +8714,11 @@
         <v>352</v>
       </c>
       <c r="B425" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D425, "00")&amp;"/"&amp;C425</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-008/info.json</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D425" s="3">
         <v>7</v>
@@ -8728,11 +8729,11 @@
         <v>353</v>
       </c>
       <c r="B426" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D426, "00")&amp;"/"&amp;C426</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-008/info.json</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D426" s="3">
         <v>7</v>
@@ -8743,11 +8744,11 @@
         <v>354</v>
       </c>
       <c r="B427" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D427, "00")&amp;"/"&amp;C427</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-008/info.json</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D427" s="3">
         <v>7</v>
@@ -8758,11 +8759,11 @@
         <v>355</v>
       </c>
       <c r="B428" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D428, "00")&amp;"/"&amp;C428</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-009/info.json</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D428" s="3">
         <v>7</v>
@@ -8773,11 +8774,11 @@
         <v>356</v>
       </c>
       <c r="B429" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D429, "00")&amp;"/"&amp;C429</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-010/info.json</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D429" s="3">
         <v>7</v>
@@ -8788,11 +8789,11 @@
         <v>357</v>
       </c>
       <c r="B430" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D430, "00")&amp;"/"&amp;C430</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-011/info.json</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D430" s="3">
         <v>7</v>
@@ -8803,11 +8804,11 @@
         <v>357</v>
       </c>
       <c r="B431" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D431, "00")&amp;"/"&amp;C431</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-012/info.json</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D431" s="3">
         <v>7</v>
@@ -8818,11 +8819,11 @@
         <v>358</v>
       </c>
       <c r="B432" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D432, "00")&amp;"/"&amp;C432</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-012/info.json</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D432" s="3">
         <v>7</v>
@@ -8833,11 +8834,11 @@
         <v>359</v>
       </c>
       <c r="B433" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D433, "00")&amp;"/"&amp;C433</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-012/info.json</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D433" s="3">
         <v>7</v>
@@ -8848,11 +8849,11 @@
         <v>360</v>
       </c>
       <c r="B434" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D434, "00")&amp;"/"&amp;C434</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-012/info.json</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D434" s="3">
         <v>7</v>
@@ -8863,11 +8864,11 @@
         <v>361</v>
       </c>
       <c r="B435" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D435, "00")&amp;"/"&amp;C435</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-013/info.json</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D435" s="3">
         <v>7</v>
@@ -8878,11 +8879,11 @@
         <v>362</v>
       </c>
       <c r="B436" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D436, "00")&amp;"/"&amp;C436</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-013/info.json</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D436" s="3">
         <v>7</v>
@@ -8893,11 +8894,11 @@
         <v>363</v>
       </c>
       <c r="B437" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D437, "00")&amp;"/"&amp;C437</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-014/info.json</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D437" s="3">
         <v>7</v>
@@ -8908,11 +8909,11 @@
         <v>364</v>
       </c>
       <c r="B438" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D438, "00")&amp;"/"&amp;C438</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-014/info.json</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D438" s="3">
         <v>7</v>
@@ -8923,11 +8924,11 @@
         <v>365</v>
       </c>
       <c r="B439" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D439, "00")&amp;"/"&amp;C439</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-015/info.json</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D439" s="3">
         <v>7</v>
@@ -8938,11 +8939,11 @@
         <v>366</v>
       </c>
       <c r="B440" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D440, "00")&amp;"/"&amp;C440</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D440" s="3">
         <v>7</v>
@@ -8953,11 +8954,11 @@
         <v>367</v>
       </c>
       <c r="B441" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D441, "00")&amp;"/"&amp;C441</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D441" s="3">
         <v>7</v>
@@ -8968,11 +8969,11 @@
         <v>368</v>
       </c>
       <c r="B442" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D442, "00")&amp;"/"&amp;C442</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D442" s="3">
         <v>7</v>
@@ -8983,11 +8984,11 @@
         <v>369</v>
       </c>
       <c r="B443" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D443, "00")&amp;"/"&amp;C443</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D443" s="3">
         <v>7</v>
@@ -8998,11 +8999,11 @@
         <v>370</v>
       </c>
       <c r="B444" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D444, "00")&amp;"/"&amp;C444</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D444" s="3">
         <v>7</v>
@@ -9013,11 +9014,11 @@
         <v>371</v>
       </c>
       <c r="B445" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D445, "00")&amp;"/"&amp;C445</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D445" s="3">
         <v>7</v>
@@ -9028,11 +9029,11 @@
         <v>372</v>
       </c>
       <c r="B446" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D446, "00")&amp;"/"&amp;C446</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D446" s="3">
         <v>7</v>
@@ -9043,11 +9044,11 @@
         <v>373</v>
       </c>
       <c r="B447" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D447, "00")&amp;"/"&amp;C447</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D447" s="3">
         <v>7</v>
@@ -9058,11 +9059,11 @@
         <v>374</v>
       </c>
       <c r="B448" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D448, "00")&amp;"/"&amp;C448</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D448" s="3">
         <v>7</v>
@@ -9073,11 +9074,11 @@
         <v>375</v>
       </c>
       <c r="B449" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D449, "00")&amp;"/"&amp;C449</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D449" s="3">
         <v>7</v>
@@ -9088,11 +9089,11 @@
         <v>376</v>
       </c>
       <c r="B450" s="1" t="str">
-        <f t="shared" ref="B450:B513" si="7">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D450, "00")&amp;"/"&amp;C450</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D450, "00")&amp;"/"&amp;C450</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D450" s="3">
         <v>7</v>
@@ -9103,11 +9104,11 @@
         <v>377</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D451, "00")&amp;"/"&amp;C451</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D451" s="3">
         <v>7</v>
@@ -9118,11 +9119,11 @@
         <v>378</v>
       </c>
       <c r="B452" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D452, "00")&amp;"/"&amp;C452</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D452" s="3">
         <v>7</v>
@@ -9133,11 +9134,11 @@
         <v>379</v>
       </c>
       <c r="B453" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D453, "00")&amp;"/"&amp;C453</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D453" s="3">
         <v>7</v>
@@ -9148,11 +9149,11 @@
         <v>380</v>
       </c>
       <c r="B454" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D454, "00")&amp;"/"&amp;C454</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-016/info.json</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D454" s="3">
         <v>7</v>
@@ -9163,11 +9164,11 @@
         <v>381</v>
       </c>
       <c r="B455" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D455, "00")&amp;"/"&amp;C455</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-017/info.json</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D455" s="3">
         <v>7</v>
@@ -9178,11 +9179,11 @@
         <v>382</v>
       </c>
       <c r="B456" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D456, "00")&amp;"/"&amp;C456</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-017/info.json</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D456" s="3">
         <v>7</v>
@@ -9193,11 +9194,11 @@
         <v>383</v>
       </c>
       <c r="B457" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D457, "00")&amp;"/"&amp;C457</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-018/info.json</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D457" s="3">
         <v>7</v>
@@ -9208,11 +9209,11 @@
         <v>384</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D458, "00")&amp;"/"&amp;C458</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-018/info.json</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D458" s="3">
         <v>7</v>
@@ -9223,11 +9224,11 @@
         <v>385</v>
       </c>
       <c r="B459" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-07/yanesen-07-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D459, "00")&amp;"/"&amp;C459</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-07/yanesen-07-018/info.json</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D459" s="3">
         <v>7</v>
@@ -9238,11 +9239,11 @@
         <v>386</v>
       </c>
       <c r="B460" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D460, "00")&amp;"/"&amp;C460</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-001/info.json</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D460" s="3">
         <v>1</v>
@@ -9253,11 +9254,11 @@
         <v>387</v>
       </c>
       <c r="B461" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D461, "00")&amp;"/"&amp;C461</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-002/info.json</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D461" s="3">
         <v>1</v>
@@ -9268,11 +9269,11 @@
         <v>388</v>
       </c>
       <c r="B462" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D462, "00")&amp;"/"&amp;C462</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-002/info.json</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D462" s="3">
         <v>1</v>
@@ -9283,11 +9284,11 @@
         <v>389</v>
       </c>
       <c r="B463" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D463, "00")&amp;"/"&amp;C463</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-003/info.json</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D463" s="3">
         <v>1</v>
@@ -9298,11 +9299,11 @@
         <v>390</v>
       </c>
       <c r="B464" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D464, "00")&amp;"/"&amp;C464</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-003/info.json</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D464" s="3">
         <v>1</v>
@@ -9313,11 +9314,11 @@
         <v>391</v>
       </c>
       <c r="B465" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D465, "00")&amp;"/"&amp;C465</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-004/info.json</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D465" s="3">
         <v>1</v>
@@ -9328,11 +9329,11 @@
         <v>392</v>
       </c>
       <c r="B466" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D466, "00")&amp;"/"&amp;C466</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-005/info.json</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D466" s="3">
         <v>1</v>
@@ -9343,11 +9344,11 @@
         <v>393</v>
       </c>
       <c r="B467" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D467, "00")&amp;"/"&amp;C467</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-005/info.json</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D467" s="3">
         <v>1</v>
@@ -9358,11 +9359,11 @@
         <v>394</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D468, "00")&amp;"/"&amp;C468</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-006/info.json</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D468" s="3">
         <v>1</v>
@@ -9373,11 +9374,11 @@
         <v>395</v>
       </c>
       <c r="B469" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D469, "00")&amp;"/"&amp;C469</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-006/info.json</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D469" s="3">
         <v>1</v>
@@ -9388,11 +9389,11 @@
         <v>396</v>
       </c>
       <c r="B470" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-01/yanesen-01-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D470, "00")&amp;"/"&amp;C470</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-01/yanesen-01-006/info.json</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D470" s="3">
         <v>1</v>
@@ -9403,11 +9404,11 @@
         <v>397</v>
       </c>
       <c r="B471" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-001.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D471, "00")&amp;"/"&amp;C471</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-001/info.json</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D471" s="3">
         <v>2</v>
@@ -9418,11 +9419,11 @@
         <v>398</v>
       </c>
       <c r="B472" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D472, "00")&amp;"/"&amp;C472</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-002/info.json</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D472" s="3">
         <v>2</v>
@@ -9433,11 +9434,11 @@
         <v>399</v>
       </c>
       <c r="B473" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D473, "00")&amp;"/"&amp;C473</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-002/info.json</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D473" s="3">
         <v>2</v>
@@ -9448,11 +9449,11 @@
         <v>400</v>
       </c>
       <c r="B474" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D474, "00")&amp;"/"&amp;C474</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-002/info.json</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D474" s="3">
         <v>2</v>
@@ -9463,11 +9464,11 @@
         <v>401</v>
       </c>
       <c r="B475" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-002.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D475, "00")&amp;"/"&amp;C475</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-002/info.json</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D475" s="3">
         <v>2</v>
@@ -9478,11 +9479,11 @@
         <v>402</v>
       </c>
       <c r="B476" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D476, "00")&amp;"/"&amp;C476</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-003/info.json</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D476" s="3">
         <v>2</v>
@@ -9493,11 +9494,11 @@
         <v>402</v>
       </c>
       <c r="B477" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D477, "00")&amp;"/"&amp;C477</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D477" s="3">
         <v>2</v>
@@ -9508,11 +9509,11 @@
         <v>402</v>
       </c>
       <c r="B478" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D478, "00")&amp;"/"&amp;C478</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D478" s="3">
         <v>2</v>
@@ -9523,11 +9524,11 @@
         <v>402</v>
       </c>
       <c r="B479" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D479, "00")&amp;"/"&amp;C479</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D479" s="3">
         <v>2</v>
@@ -9538,11 +9539,11 @@
         <v>402</v>
       </c>
       <c r="B480" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D480, "00")&amp;"/"&amp;C480</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-007/info.json</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D480" s="3">
         <v>2</v>
@@ -9553,11 +9554,11 @@
         <v>403</v>
       </c>
       <c r="B481" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D481, "00")&amp;"/"&amp;C481</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-003/info.json</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D481" s="3">
         <v>2</v>
@@ -9568,11 +9569,11 @@
         <v>403</v>
       </c>
       <c r="B482" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D482, "00")&amp;"/"&amp;C482</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D482" s="3">
         <v>2</v>
@@ -9583,11 +9584,11 @@
         <v>403</v>
       </c>
       <c r="B483" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D483, "00")&amp;"/"&amp;C483</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D483" s="3">
         <v>2</v>
@@ -9598,11 +9599,11 @@
         <v>403</v>
       </c>
       <c r="B484" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D484, "00")&amp;"/"&amp;C484</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D484" s="3">
         <v>2</v>
@@ -9613,11 +9614,11 @@
         <v>403</v>
       </c>
       <c r="B485" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D485, "00")&amp;"/"&amp;C485</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-007/info.json</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D485" s="3">
         <v>2</v>
@@ -9628,11 +9629,11 @@
         <v>404</v>
       </c>
       <c r="B486" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D486, "00")&amp;"/"&amp;C486</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-003/info.json</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D486" s="3">
         <v>2</v>
@@ -9643,11 +9644,11 @@
         <v>405</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D487, "00")&amp;"/"&amp;C487</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-003/info.json</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D487" s="3">
         <v>2</v>
@@ -9658,11 +9659,11 @@
         <v>406</v>
       </c>
       <c r="B488" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D488, "00")&amp;"/"&amp;C488</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D488" s="3">
         <v>2</v>
@@ -9673,11 +9674,11 @@
         <v>407</v>
       </c>
       <c r="B489" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D489, "00")&amp;"/"&amp;C489</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D489" s="3">
         <v>2</v>
@@ -9688,11 +9689,11 @@
         <v>408</v>
       </c>
       <c r="B490" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D490, "00")&amp;"/"&amp;C490</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D490" s="3">
         <v>2</v>
@@ -9703,11 +9704,11 @@
         <v>409</v>
       </c>
       <c r="B491" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D491, "00")&amp;"/"&amp;C491</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D491" s="3">
         <v>2</v>
@@ -9718,11 +9719,11 @@
         <v>410</v>
       </c>
       <c r="B492" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D492, "00")&amp;"/"&amp;C492</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D492" s="3">
         <v>2</v>
@@ -9733,11 +9734,11 @@
         <v>410</v>
       </c>
       <c r="B493" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D493, "00")&amp;"/"&amp;C493</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D493" s="3">
         <v>2</v>
@@ -9748,11 +9749,11 @@
         <v>411</v>
       </c>
       <c r="B494" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D494, "00")&amp;"/"&amp;C494</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D494" s="3">
         <v>2</v>
@@ -9763,11 +9764,11 @@
         <v>412</v>
       </c>
       <c r="B495" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D495, "00")&amp;"/"&amp;C495</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D495" s="3">
         <v>2</v>
@@ -9778,11 +9779,11 @@
         <v>413</v>
       </c>
       <c r="B496" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D496, "00")&amp;"/"&amp;C496</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D496" s="3">
         <v>2</v>
@@ -9793,11 +9794,11 @@
         <v>414</v>
       </c>
       <c r="B497" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D497, "00")&amp;"/"&amp;C497</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D497" s="3">
         <v>2</v>
@@ -9808,11 +9809,11 @@
         <v>415</v>
       </c>
       <c r="B498" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D498, "00")&amp;"/"&amp;C498</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D498" s="3">
         <v>2</v>
@@ -9823,11 +9824,11 @@
         <v>415</v>
       </c>
       <c r="B499" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D499, "00")&amp;"/"&amp;C499</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D499" s="3">
         <v>2</v>
@@ -9838,11 +9839,11 @@
         <v>416</v>
       </c>
       <c r="B500" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D500, "00")&amp;"/"&amp;C500</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D500" s="3">
         <v>2</v>
@@ -9853,11 +9854,11 @@
         <v>417</v>
       </c>
       <c r="B501" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D501, "00")&amp;"/"&amp;C501</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D501" s="3">
         <v>2</v>
@@ -9868,11 +9869,11 @@
         <v>418</v>
       </c>
       <c r="B502" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D502, "00")&amp;"/"&amp;C502</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D502" s="3">
         <v>2</v>
@@ -9883,11 +9884,11 @@
         <v>419</v>
       </c>
       <c r="B503" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-003.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D503, "00")&amp;"/"&amp;C503</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-003/info.json</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D503" s="3">
         <v>2</v>
@@ -9898,11 +9899,11 @@
         <v>419</v>
       </c>
       <c r="B504" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-004.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D504, "00")&amp;"/"&amp;C504</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-004/info.json</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D504" s="3">
         <v>2</v>
@@ -9913,11 +9914,11 @@
         <v>419</v>
       </c>
       <c r="B505" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-005.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D505, "00")&amp;"/"&amp;C505</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-005/info.json</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D505" s="3">
         <v>2</v>
@@ -9928,11 +9929,11 @@
         <v>420</v>
       </c>
       <c r="B506" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-006.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D506, "00")&amp;"/"&amp;C506</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-006/info.json</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D506" s="3">
         <v>2</v>
@@ -9943,11 +9944,11 @@
         <v>421</v>
       </c>
       <c r="B507" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D507, "00")&amp;"/"&amp;C507</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-007/info.json</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D507" s="3">
         <v>2</v>
@@ -9958,11 +9959,11 @@
         <v>422</v>
       </c>
       <c r="B508" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-007.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D508, "00")&amp;"/"&amp;C508</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-007/info.json</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D508" s="3">
         <v>2</v>
@@ -9973,11 +9974,11 @@
         <v>423</v>
       </c>
       <c r="B509" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D509, "00")&amp;"/"&amp;C509</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-008/info.json</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D509" s="3">
         <v>2</v>
@@ -9988,11 +9989,11 @@
         <v>424</v>
       </c>
       <c r="B510" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-008.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D510, "00")&amp;"/"&amp;C510</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-008/info.json</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D510" s="3">
         <v>2</v>
@@ -10003,11 +10004,11 @@
         <v>425</v>
       </c>
       <c r="B511" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-009.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D511, "00")&amp;"/"&amp;C511</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-009/info.json</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D511" s="3">
         <v>2</v>
@@ -10018,11 +10019,11 @@
         <v>425</v>
       </c>
       <c r="B512" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-010.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D512, "00")&amp;"/"&amp;C512</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-010/info.json</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D512" s="3">
         <v>2</v>
@@ -10033,11 +10034,11 @@
         <v>425</v>
       </c>
       <c r="B513" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D513, "00")&amp;"/"&amp;C513</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D513" s="3">
         <v>2</v>
@@ -10048,11 +10049,11 @@
         <v>426</v>
       </c>
       <c r="B514" s="1" t="str">
-        <f t="shared" ref="B514:B577" si="8">"https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-"&amp;TEXT(D514, "00")&amp;"/"&amp;C514</f>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D514, "00")&amp;"/"&amp;C514</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D514" s="3">
         <v>2</v>
@@ -10063,11 +10064,11 @@
         <v>427</v>
       </c>
       <c r="B515" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D515, "00")&amp;"/"&amp;C515</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D515" s="3">
         <v>2</v>
@@ -10078,11 +10079,11 @@
         <v>428</v>
       </c>
       <c r="B516" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D516, "00")&amp;"/"&amp;C516</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D516" s="3">
         <v>2</v>
@@ -10093,11 +10094,11 @@
         <v>429</v>
       </c>
       <c r="B517" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D517, "00")&amp;"/"&amp;C517</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D517" s="3">
         <v>2</v>
@@ -10108,11 +10109,11 @@
         <v>430</v>
       </c>
       <c r="B518" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D518, "00")&amp;"/"&amp;C518</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D518" s="3">
         <v>2</v>
@@ -10123,11 +10124,11 @@
         <v>431</v>
       </c>
       <c r="B519" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D519, "00")&amp;"/"&amp;C519</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D519" s="3">
         <v>2</v>
@@ -10138,11 +10139,11 @@
         <v>432</v>
       </c>
       <c r="B520" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D520, "00")&amp;"/"&amp;C520</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D520" s="3">
         <v>2</v>
@@ -10153,11 +10154,11 @@
         <v>433</v>
       </c>
       <c r="B521" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D521, "00")&amp;"/"&amp;C521</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D521" s="3">
         <v>2</v>
@@ -10168,11 +10169,11 @@
         <v>434</v>
       </c>
       <c r="B522" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D522, "00")&amp;"/"&amp;C522</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D522" s="3">
         <v>2</v>
@@ -10183,11 +10184,11 @@
         <v>435</v>
       </c>
       <c r="B523" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-011.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D523, "00")&amp;"/"&amp;C523</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-011/info.json</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D523" s="3">
         <v>2</v>
@@ -10198,11 +10199,11 @@
         <v>436</v>
       </c>
       <c r="B524" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-012.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D524, "00")&amp;"/"&amp;C524</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-012/info.json</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D524" s="3">
         <v>2</v>
@@ -10213,11 +10214,11 @@
         <v>437</v>
       </c>
       <c r="B525" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-013.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D525, "00")&amp;"/"&amp;C525</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-013/info.json</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D525" s="3">
         <v>2</v>
@@ -10228,11 +10229,11 @@
         <v>437</v>
       </c>
       <c r="B526" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-014.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D526, "00")&amp;"/"&amp;C526</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-014/info.json</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D526" s="3">
         <v>2</v>
@@ -10243,11 +10244,11 @@
         <v>438</v>
       </c>
       <c r="B527" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D527, "00")&amp;"/"&amp;C527</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-015/info.json</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D527" s="3">
         <v>2</v>
@@ -10258,11 +10259,11 @@
         <v>439</v>
       </c>
       <c r="B528" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D528, "00")&amp;"/"&amp;C528</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-015/info.json</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D528" s="3">
         <v>2</v>
@@ -10273,11 +10274,11 @@
         <v>440</v>
       </c>
       <c r="B529" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-015.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D529, "00")&amp;"/"&amp;C529</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-015/info.json</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D529" s="3">
         <v>2</v>
@@ -10288,11 +10289,11 @@
         <v>441</v>
       </c>
       <c r="B530" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-016.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D530, "00")&amp;"/"&amp;C530</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-016/info.json</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D530" s="3">
         <v>2</v>
@@ -10303,11 +10304,11 @@
         <v>442</v>
       </c>
       <c r="B531" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-017.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D531, "00")&amp;"/"&amp;C531</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-017/info.json</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D531" s="3">
         <v>2</v>
@@ -10318,11 +10319,11 @@
         <v>443</v>
       </c>
       <c r="B532" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D532, "00")&amp;"/"&amp;C532</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-018/info.json</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D532" s="3">
         <v>2</v>
@@ -10333,11 +10334,11 @@
         <v>444</v>
       </c>
       <c r="B533" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D533, "00")&amp;"/"&amp;C533</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-018/info.json</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D533" s="3">
         <v>2</v>
@@ -10348,11 +10349,11 @@
         <v>445</v>
       </c>
       <c r="B534" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D534, "00")&amp;"/"&amp;C534</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-018/info.json</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D534" s="3">
         <v>2</v>
@@ -10363,11 +10364,11 @@
         <v>446</v>
       </c>
       <c r="B535" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>https://nakamura196.github.io/lda/data/image/original/yanesen/yanesen-02/yanesen-02-018.jpg</v>
+        <f>"https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-"&amp;TEXT(D535, "00")&amp;"/"&amp;C535</f>
+        <v>https://nakamura196.github.io/lda/data/image/tile/yanesen/yanesen-02/yanesen-02-018/info.json</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D535" s="3">
         <v>2</v>
